--- a/space usage analysis/space usage analysis.xlsx
+++ b/space usage analysis/space usage analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuakaplan/misra_gries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuakaplan/misra_gries/space usage analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -209,7 +209,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$O$2,Sheet1!$O$8,Sheet1!$O$14,Sheet1!$O$21,Sheet1!$O$26)</c:f>
+              <c:f>(Sheet1!$Q$2,Sheet1!$Q$8,Sheet1!$Q$14,Sheet1!$Q$21,Sheet1!$Q$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -277,7 +277,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$O$2,Sheet1!$O$8,Sheet1!$O$14,Sheet1!$O$21,Sheet1!$O$26)</c:f>
+              <c:f>(Sheet1!$Q$2,Sheet1!$Q$8,Sheet1!$Q$14,Sheet1!$Q$21,Sheet1!$Q$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -326,7 +326,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -335,11 +334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1779052352"/>
-        <c:axId val="1669227728"/>
+        <c:axId val="2057776032"/>
+        <c:axId val="1979495616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1779052352"/>
+        <c:axId val="2057776032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1669227728"/>
+        <c:crossAx val="1979495616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -446,7 +445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1669227728"/>
+        <c:axId val="1979495616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1779052352"/>
+        <c:crossAx val="2057776032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -739,7 +738,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$O$2,Sheet1!$O$8,Sheet1!$O$14,Sheet1!$O$21,Sheet1!$O$26)</c:f>
+              <c:f>(Sheet1!$Q$2,Sheet1!$Q$8,Sheet1!$Q$14,Sheet1!$Q$21,Sheet1!$Q$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -763,7 +762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$L$7,Sheet1!$L$13,Sheet1!$L$19,Sheet1!$L$25,Sheet1!$L$31)</c:f>
+              <c:f>(Sheet1!$M$7,Sheet1!$M$13,Sheet1!$M$19,Sheet1!$M$25,Sheet1!$M$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -807,7 +806,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$O$2,Sheet1!$O$8,Sheet1!$O$14,Sheet1!$O$21,Sheet1!$O$26)</c:f>
+              <c:f>(Sheet1!$Q$2,Sheet1!$Q$8,Sheet1!$Q$14,Sheet1!$Q$21,Sheet1!$Q$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -831,7 +830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$M$2,Sheet1!$M$8,Sheet1!$M$14,Sheet1!$M$21,Sheet1!$M$26)</c:f>
+              <c:f>(Sheet1!$N$2,Sheet1!$N$8,Sheet1!$N$14,Sheet1!$N$21,Sheet1!$N$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -864,11 +863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1779537968"/>
-        <c:axId val="1779197040"/>
+        <c:axId val="2061942912"/>
+        <c:axId val="2061946032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1779537968"/>
+        <c:axId val="2061942912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1779197040"/>
+        <c:crossAx val="2061946032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1779197040"/>
+        <c:axId val="2061946032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1779537968"/>
+        <c:crossAx val="2061942912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,7 +1269,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$O$2,Sheet1!$O$8,Sheet1!$O$14,Sheet1!$O$21,Sheet1!$O$26)</c:f>
+              <c:f>(Sheet1!$Q$2,Sheet1!$Q$8,Sheet1!$Q$14,Sheet1!$Q$21,Sheet1!$Q$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1294,7 +1293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$R$7,Sheet1!$R$13,Sheet1!$R$19,Sheet1!$R$25,Sheet1!$R$31)</c:f>
+              <c:f>(Sheet1!$T$7,Sheet1!$T$13,Sheet1!$T$19,Sheet1!$T$25,Sheet1!$T$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1338,7 +1337,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$O$2,Sheet1!$O$8,Sheet1!$O$14,Sheet1!$O$21,Sheet1!$O$26)</c:f>
+              <c:f>(Sheet1!$Q$2,Sheet1!$Q$8,Sheet1!$Q$14,Sheet1!$Q$21,Sheet1!$Q$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1362,7 +1361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$S$2,Sheet1!$S$11,Sheet1!$S$17,Sheet1!$S$23,Sheet1!$S$27)</c:f>
+              <c:f>(Sheet1!$U$2,Sheet1!$U$11,Sheet1!$U$17,Sheet1!$U$23,Sheet1!$U$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1395,11 +1394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1783486160"/>
-        <c:axId val="1753198032"/>
+        <c:axId val="2062868128"/>
+        <c:axId val="2062872160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783486160"/>
+        <c:axId val="2062868128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753198032"/>
+        <c:crossAx val="2062872160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753198032"/>
+        <c:axId val="2062872160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783486160"/>
+        <c:crossAx val="2062868128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3381,7 +3380,7 @@
       <xdr:rowOff>142137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>232962</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>198581</xdr:rowOff>
@@ -3405,13 +3404,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>641413</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>129308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>297101</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>185752</xdr:rowOff>
@@ -3441,7 +3440,7 @@
       <xdr:rowOff>103653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>384337</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>160097</xdr:rowOff>
@@ -3729,19 +3728,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B33" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="7" width="14.5" customWidth="1"/>
+    <col min="6" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3760,44 +3759,44 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3818,48 +3817,48 @@
         <f>C2*(ROUNDUP(LOG(D2,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3400</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>500000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5.5E-2</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L6" si="0">K2*1049000</f>
+      <c r="M2">
+        <f t="shared" ref="M2:M6" si="0">L2*1049000</f>
         <v>57695</v>
       </c>
-      <c r="M2">
-        <f>I2*(ROUNDUP(LOG(J2,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N2">
+        <f>J2*(ROUNDUP(LOG(K2,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3600</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1000000</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R6" si="1">Q2*1049000</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T6" si="1">S2*1049000</f>
         <v>61891</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S6" si="2">O2*(ROUNDUP(LOG(P2,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U2">
+        <f t="shared" ref="U2:U6" si="2">Q2*(ROUNDUP(LOG(R2,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3700</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3880,48 +3879,48 @@
         <f t="shared" ref="G3:G6" si="4">C3*(ROUNDUP(LOG(D3,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3400</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>500000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3.9E-2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f t="shared" si="0"/>
         <v>40911</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M6" si="5">I3*(ROUNDUP(LOG(J3,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="5">J3*(ROUNDUP(LOG(K3,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3600</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1000000</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>3.9E-2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <f t="shared" si="1"/>
         <v>40911</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <f t="shared" si="2"/>
         <v>3700</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3942,48 +3941,48 @@
         <f t="shared" si="4"/>
         <v>3400</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>500000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.2E-2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>12588</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1000000</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>3.9E-2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f t="shared" si="1"/>
         <v>40911</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="2"/>
         <v>3700</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -4004,48 +4003,48 @@
         <f t="shared" si="4"/>
         <v>3400</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>500000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.2E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="0"/>
         <v>12588</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1000000</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>6.2E-2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="1"/>
         <v>65038</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="2"/>
         <v>3700</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -4066,48 +4065,48 @@
         <f t="shared" si="4"/>
         <v>3400</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>500000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.02</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>20980</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>1000000</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>3.1E-2</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" si="1"/>
         <v>32519</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="2"/>
         <v>3700</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -4119,26 +4118,26 @@
         <f>AVERAGE(F2:F6)</f>
         <v>13427.2</v>
       </c>
-      <c r="K7" s="2">
-        <f>AVERAGE(K2:K6)</f>
-        <v>2.7599999999999996E-2</v>
-      </c>
       <c r="L7" s="2">
         <f>AVERAGE(L2:L6)</f>
+        <v>2.7599999999999996E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f>AVERAGE(M2:M6)</f>
         <v>28952.400000000001</v>
       </c>
-      <c r="Q7" s="2">
-        <f t="shared" ref="Q7" si="6">AVERAGE(Q2:Q6)</f>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7" si="6">AVERAGE(S2:S6)</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7" si="7">AVERAGE(R2:R6)</f>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7" si="7">AVERAGE(T2:T6)</f>
         <v>48254</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1</v>
       </c>
@@ -4159,49 +4158,49 @@
         <f>C8*(ROUNDUP(LOG(D8,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>17000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>500</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>500000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.25</v>
       </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L12" si="9">K8*1049000</f>
+      <c r="M8">
+        <f t="shared" ref="M8:M12" si="9">L8*1049000</f>
         <v>262250</v>
       </c>
-      <c r="M8">
-        <f>I8*(ROUNDUP(LOG(J8,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N8">
+        <f>J8*(ROUNDUP(LOG(K8,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>18000</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>500</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1000000</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.20300000000000001</v>
       </c>
-      <c r="R8">
-        <f t="shared" ref="R8:R12" si="10">Q8*1049000</f>
+      <c r="T8">
+        <f t="shared" ref="T8:T12" si="10">S8*1049000</f>
         <v>212947</v>
       </c>
-      <c r="S8">
-        <f>O8*(ROUNDUP(LOG(P8,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U8">
+        <f>Q8*(ROUNDUP(LOG(R8,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>18500</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -4222,48 +4221,48 @@
         <f t="shared" ref="G9:G12" si="11">C9*(ROUNDUP(LOG(D9,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>17000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>500</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>500000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.16</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="9"/>
         <v>167840</v>
       </c>
-      <c r="M9">
-        <f t="shared" ref="M9:M12" si="12">I9*(ROUNDUP(LOG(J9,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N9">
+        <f t="shared" ref="N9:N12" si="12">J9*(ROUNDUP(LOG(K9,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>18000</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>500</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>1000000</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.312</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <f t="shared" si="10"/>
         <v>327288</v>
       </c>
-      <c r="S9">
-        <f t="shared" ref="S9:S12" si="13">O9*(ROUNDUP(LOG(P9,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U9">
+        <f t="shared" ref="U9:U12" si="13">Q9*(ROUNDUP(LOG(R9,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>18500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3</v>
       </c>
@@ -4284,48 +4283,48 @@
         <f t="shared" si="11"/>
         <v>17000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>500</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>500000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.20699999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="9"/>
         <v>217143</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="12"/>
         <v>18000</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>500</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>1000000</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.11700000000000001</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <f t="shared" si="10"/>
         <v>122733</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" si="13"/>
         <v>18500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>4</v>
       </c>
@@ -4346,49 +4345,49 @@
         <f t="shared" si="11"/>
         <v>17000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>500</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>500000</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.156</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="9"/>
         <v>163644</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="12"/>
         <v>18000</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>500</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1000000</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>0.39100000000000001</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <f t="shared" si="10"/>
         <v>410159</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f t="shared" si="13"/>
         <v>18500</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>5</v>
       </c>
@@ -4409,49 +4408,49 @@
         <f t="shared" si="11"/>
         <v>17000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>500</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>500000</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="9"/>
         <v>180428</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="12"/>
         <v>18000</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>500</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>1000000</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>0.18</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <f t="shared" si="10"/>
         <v>188820</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" si="13"/>
         <v>18500</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -4463,24 +4462,24 @@
         <f>AVERAGE(F8:F12)</f>
         <v>214415.6</v>
       </c>
-      <c r="K13" s="2">
-        <f>AVERAGE(K8:K12)</f>
-        <v>0.189</v>
-      </c>
       <c r="L13" s="2">
         <f>AVERAGE(L8:L12)</f>
+        <v>0.189</v>
+      </c>
+      <c r="M13" s="2">
+        <f>AVERAGE(M8:M12)</f>
         <v>198261</v>
       </c>
-      <c r="Q13" s="2">
-        <f t="shared" ref="Q13:R13" si="14">AVERAGE(Q8:Q12)</f>
+      <c r="S13" s="2">
+        <f t="shared" ref="S13:T13" si="14">AVERAGE(S8:S12)</f>
         <v>0.24060000000000001</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <f t="shared" si="14"/>
         <v>252389.4</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1</v>
       </c>
@@ -4501,49 +4500,49 @@
         <f>C14*(ROUNDUP(LOG(D14,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>34000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>500000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.64100000000000001</v>
       </c>
-      <c r="L14">
-        <f t="shared" ref="L14:L18" si="16">K14*1049000</f>
+      <c r="M14">
+        <f t="shared" ref="M14:M18" si="16">L14*1049000</f>
         <v>672409</v>
       </c>
-      <c r="M14">
-        <f>I14*(ROUNDUP(LOG(J14,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N14">
+        <f>J14*(ROUNDUP(LOG(K14,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>36000</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1000</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>1000000</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>0.51600000000000001</v>
       </c>
-      <c r="R14">
-        <f t="shared" ref="R14:R18" si="17">Q14*1049000</f>
+      <c r="T14">
+        <f t="shared" ref="T14:T18" si="17">S14*1049000</f>
         <v>541284</v>
       </c>
-      <c r="S14">
-        <f>O14*(ROUNDUP(LOG(P14,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U14">
+        <f>Q14*(ROUNDUP(LOG(R14,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>37000</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2</v>
       </c>
@@ -4564,48 +4563,48 @@
         <f t="shared" ref="G15:G18" si="18">C15*(ROUNDUP(LOG(D15,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>34000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>500000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.63700000000000001</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="16"/>
         <v>668213</v>
       </c>
-      <c r="M15">
-        <f t="shared" ref="M15:M18" si="19">I15*(ROUNDUP(LOG(J15,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N15">
+        <f t="shared" ref="N15:N18" si="19">J15*(ROUNDUP(LOG(K15,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>36000</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1000</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>1000000</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>0.82</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <f t="shared" si="17"/>
         <v>860180</v>
       </c>
-      <c r="S15">
-        <f t="shared" ref="S15:S18" si="20">O15*(ROUNDUP(LOG(P15,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U15">
+        <f t="shared" ref="U15:U18" si="20">Q15*(ROUNDUP(LOG(R15,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>3</v>
       </c>
@@ -4626,48 +4625,48 @@
         <f t="shared" si="18"/>
         <v>34000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>500000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="16"/>
         <v>524500</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="19"/>
         <v>36000</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1000</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>1000000</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.77</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <f t="shared" si="17"/>
         <v>807730</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f t="shared" si="20"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>4</v>
       </c>
@@ -4688,48 +4687,48 @@
         <f t="shared" si="18"/>
         <v>34000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>500000</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.77</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="16"/>
         <v>807730</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="19"/>
         <v>36000</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>4</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>1000</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>1000000</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>0.871</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <f t="shared" si="17"/>
         <v>913679</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f t="shared" si="20"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>5</v>
       </c>
@@ -4750,48 +4749,48 @@
         <f t="shared" si="18"/>
         <v>34000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>500000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>0.73399999999999999</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="16"/>
         <v>769966</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="19"/>
         <v>36000</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1000</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1000000</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>0.65200000000000002</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <f t="shared" si="17"/>
         <v>683948</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <f t="shared" si="20"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4803,25 +4802,25 @@
         <f>AVERAGE(F14:F18)</f>
         <v>655834.80000000005</v>
       </c>
-      <c r="K19" s="2">
-        <f>AVERAGE(K14:K18)</f>
-        <v>0.65639999999999998</v>
-      </c>
       <c r="L19" s="2">
         <f>AVERAGE(L14:L18)</f>
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="M19" s="2">
+        <f>AVERAGE(M14:M18)</f>
         <v>688563.6</v>
       </c>
-      <c r="Q19" s="2">
-        <f t="shared" ref="Q19:R19" si="21">AVERAGE(Q14:Q18)</f>
+      <c r="S19" s="2">
+        <f t="shared" ref="S19:T19" si="21">AVERAGE(S14:S18)</f>
         <v>0.7258</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <f t="shared" si="21"/>
         <v>761364.2</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -4842,48 +4841,48 @@
         <f>C20*(ROUNDUP(LOG(D20,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>340000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>10000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>500000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.5549999999999999</v>
       </c>
-      <c r="L20">
-        <f t="shared" ref="L20:L24" si="23">K20*1049000</f>
+      <c r="M20">
+        <f t="shared" ref="M20:M24" si="23">L20*1049000</f>
         <v>1631195</v>
       </c>
-      <c r="M20">
-        <f>I20*(ROUNDUP(LOG(J20,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N20">
+        <f>J20*(ROUNDUP(LOG(K20,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>360000</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>10000</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>1000000</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>1.41</v>
       </c>
-      <c r="R20">
-        <f t="shared" ref="R20:R24" si="24">Q20*1049000</f>
+      <c r="T20">
+        <f t="shared" ref="T20:T24" si="24">S20*1049000</f>
         <v>1479090</v>
       </c>
-      <c r="S20">
-        <f>O20*(ROUNDUP(LOG(P20,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U20">
+        <f>Q20*(ROUNDUP(LOG(R20,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>370000</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>2</v>
       </c>
@@ -4904,48 +4903,48 @@
         <f t="shared" ref="G21:G24" si="25">C21*(ROUNDUP(LOG(D21,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>340000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>10000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>500000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.4690000000000001</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="23"/>
         <v>1540981</v>
       </c>
-      <c r="M21">
-        <f t="shared" ref="M21:M24" si="26">I21*(ROUNDUP(LOG(J21,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N21">
+        <f t="shared" ref="N21:N24" si="26">J21*(ROUNDUP(LOG(K21,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>360000</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>10000</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>1000000</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>1.4059999999999999</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <f t="shared" si="24"/>
         <v>1474894</v>
       </c>
-      <c r="S21">
-        <f t="shared" ref="S21:S24" si="27">O21*(ROUNDUP(LOG(P21,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U21">
+        <f t="shared" ref="U21:U24" si="27">Q21*(ROUNDUP(LOG(R21,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>370000</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -4966,48 +4965,48 @@
         <f t="shared" si="25"/>
         <v>340000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>500000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1.4179999999999999</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="23"/>
         <v>1487482</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="26"/>
         <v>360000</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>3</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>10000</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>1000000</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>1.4179999999999999</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <f t="shared" si="24"/>
         <v>1487482</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <f t="shared" si="27"/>
         <v>370000</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4</v>
       </c>
@@ -5028,48 +5027,48 @@
         <f t="shared" si="25"/>
         <v>340000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>500000</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1.5740000000000001</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="23"/>
         <v>1651126</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="26"/>
         <v>360000</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>4</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>10000</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>1000000</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>1.516</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <f t="shared" si="24"/>
         <v>1590284</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" si="27"/>
         <v>370000</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5</v>
       </c>
@@ -5090,48 +5089,48 @@
         <f t="shared" si="25"/>
         <v>340000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>500000</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>1.5469999999999999</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="23"/>
         <v>1622803</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="26"/>
         <v>360000</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>5</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>10000</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>1000000</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>1.5469999999999999</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <f t="shared" si="24"/>
         <v>1622803</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <f t="shared" si="27"/>
         <v>370000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -5143,24 +5142,24 @@
         <f>AVERAGE(F20:F24)</f>
         <v>1583990</v>
       </c>
-      <c r="K25" s="2">
-        <f>AVERAGE(K20:K24)</f>
-        <v>1.5125999999999999</v>
-      </c>
       <c r="L25" s="2">
         <f>AVERAGE(L20:L24)</f>
+        <v>1.5125999999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <f>AVERAGE(M20:M24)</f>
         <v>1586717.4</v>
       </c>
-      <c r="Q25" s="2">
-        <f>AVERAGE(Q20:Q24)</f>
+      <c r="S25" s="2">
+        <f>AVERAGE(S20:S24)</f>
         <v>1.4594</v>
       </c>
-      <c r="R25" s="2">
-        <f>AVERAGE(R20:R24)</f>
+      <c r="T25" s="2">
+        <f>AVERAGE(T20:T24)</f>
         <v>1530910.6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1</v>
       </c>
@@ -5181,48 +5180,48 @@
         <f>C26*(ROUNDUP(LOG(D26,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3400000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>100000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>500000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>20.852</v>
       </c>
-      <c r="L26">
-        <f t="shared" ref="L26:L30" si="29">K26*1049000</f>
+      <c r="M26">
+        <f t="shared" ref="M26:M30" si="29">L26*1049000</f>
         <v>21873748</v>
       </c>
-      <c r="M26">
-        <f>I26*(ROUNDUP(LOG(J26,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N26">
+        <f>J26*(ROUNDUP(LOG(K26,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3600000</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>100000</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>1000000</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>21.523</v>
       </c>
-      <c r="R26">
-        <f t="shared" ref="R26:R30" si="30">Q26*1049000</f>
+      <c r="T26">
+        <f t="shared" ref="T26:T30" si="30">S26*1049000</f>
         <v>22577627</v>
       </c>
-      <c r="S26">
-        <f>O26*(ROUNDUP(LOG(P26,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U26">
+        <f>Q26*(ROUNDUP(LOG(R26,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3700000</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>2</v>
       </c>
@@ -5243,48 +5242,48 @@
         <f t="shared" ref="G27:G30" si="31">C27*(ROUNDUP(LOG(D27,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3400000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>100000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>500000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>21.137</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="29"/>
         <v>22172713</v>
       </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M30" si="32">I27*(ROUNDUP(LOG(J27,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="N27">
+        <f t="shared" ref="N27:N30" si="32">J27*(ROUNDUP(LOG(K27,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3600000</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>2</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>100000</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>1000000</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>21.530999999999999</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <f t="shared" si="30"/>
         <v>22586019</v>
       </c>
-      <c r="S27">
-        <f t="shared" ref="S27:S30" si="33">O27*(ROUNDUP(LOG(P27,2),0)+ROUNDUP(LOG(100000,2),0))</f>
+      <c r="U27">
+        <f t="shared" ref="U27:U30" si="33">Q27*(ROUNDUP(LOG(R27,2),0)+ROUNDUP(LOG(100000,2),0))</f>
         <v>3700000</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
@@ -5305,48 +5304,48 @@
         <f t="shared" si="31"/>
         <v>3400000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>100000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>500000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>21</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="29"/>
         <v>22029000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="32"/>
         <v>3600000</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>100000</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>1000000</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>21.645</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <f t="shared" si="30"/>
         <v>22705605</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <f t="shared" si="33"/>
         <v>3700000</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>4</v>
       </c>
@@ -5367,48 +5366,48 @@
         <f t="shared" si="31"/>
         <v>3400000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>100000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>500000</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>21.207000000000001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="29"/>
         <v>22246143</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f t="shared" si="32"/>
         <v>3600000</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>100000</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>1000000</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>21.402000000000001</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <f t="shared" si="30"/>
         <v>22450698</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <f t="shared" si="33"/>
         <v>3700000</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>5</v>
       </c>
@@ -5429,73 +5428,73 @@
         <f t="shared" si="31"/>
         <v>3400000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>100000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>500000</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>21.085999999999999</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="29"/>
         <v>22119214</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f t="shared" si="32"/>
         <v>3600000</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>5</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>100000</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>1000000</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>21.530999999999999</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <f t="shared" si="30"/>
         <v>22586019</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <f t="shared" si="33"/>
         <v>3700000</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="2">
         <f>AVERAGE(E26:E30)</f>
-        <v>10.917999999999999</v>
+        <v>10.955400000000001</v>
       </c>
       <c r="F31" s="2">
         <f>AVERAGE(F26:F30)</f>
         <v>11492214.6</v>
       </c>
-      <c r="K31" s="2">
-        <f>AVERAGE(K26:K30)</f>
-        <v>21.048999999999999</v>
-      </c>
       <c r="L31" s="2">
         <f>AVERAGE(L26:L30)</f>
+        <v>21.0564</v>
+      </c>
+      <c r="M31" s="2">
+        <f>AVERAGE(M26:M30)</f>
         <v>22088163.600000001</v>
       </c>
-      <c r="Q31" s="2">
-        <f>AVERAGE(Q26:Q30)</f>
-        <v>19.421799999999998</v>
-      </c>
-      <c r="R31" s="2">
-        <f>AVERAGE(R26:R30)</f>
+      <c r="S31" s="2">
+        <f>AVERAGE(S26:S30)</f>
+        <v>21.526400000000002</v>
+      </c>
+      <c r="T31" s="2">
+        <f>AVERAGE(T26:T30)</f>
         <v>22581193.600000001</v>
       </c>
     </row>

--- a/space usage analysis/space usage analysis.xlsx
+++ b/space usage analysis/space usage analysis.xlsx
@@ -3730,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
